--- a/biology/Zoologie/Chlosyne_gabbii/Chlosyne_gabbii.xlsx
+++ b/biology/Zoologie/Chlosyne_gabbii/Chlosyne_gabbii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chlosyne gabbii est un insecte lépidoptère de la famille des Nymphalidae de la sous-famille des Nymphalinae et du genre Chlosyne.
 </t>
@@ -511,15 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chlosyne gabbii a été nommée par Hans Hermann Behr en 1863.
-Synonymes : Melitaea gabbii Behr, 1863; Lemonias gabbii ; Dyar, 1903[1].
-Sous-espèces
-Chlosyne gabbii gabii
-Chlosyne gabbii atrifasciata Emmel et Mattoon, 1998[1].
-Noms vernaculaires
-Chlosyne gabbii se nomme en anglais Gabb's Checkerspot [1].
+Synonymes : Melitaea gabbii Behr, 1863; Lemonias gabbii ; Dyar, 1903.
 </t>
         </is>
       </c>
@@ -545,14 +554,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chlosyne gabbii est un papillon orné de lignes parallèles de damiers jaune pâle à rouge orangé. Le revers des antérieures est à damiers jaune orange, celui des postériures est orné de lignes de taches blanches cernées de marron sur un fond orange.
-C'est un papillon de taille moyenne (son envergure varie entre 32 et 45 mm[2].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Chlosyne gabbii gabii
+Chlosyne gabbii atrifasciata Emmel et Mattoon, 1998.</t>
         </is>
       </c>
     </row>
@@ -577,16 +591,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole de mai à juillet en une seule génération[3].
-Chlosyne gabbii hiberne au troisième stade de chenille[2].
-Plantes hôtes
-Les plantes hôtes de la chenille sont Heterotheca grandiflora et Haplopappus squarrosus[1].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chlosyne gabbii se nomme en anglais Gabb's Checkerspot .
 </t>
         </is>
       </c>
@@ -612,16 +628,197 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chlosyne gabbii est un papillon orné de lignes parallèles de damiers jaune pâle à rouge orangé. Le revers des antérieures est à damiers jaune orange, celui des postériures est orné de lignes de taches blanches cernées de marron sur un fond orange.
+C'est un papillon de taille moyenne (son envergure varie entre 32 et 45 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chlosyne_gabbii</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlosyne_gabbii</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole de mai à juillet en une seule génération.
+Chlosyne gabbii hiberne au troisième stade de chenille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chlosyne_gabbii</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlosyne_gabbii</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de la chenille sont Heterotheca grandiflora et Haplopappus squarrosus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Chlosyne_gabbii</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlosyne_gabbii</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent uniquement en Californie sur la côte ouest de l'Amérique du Nord[2].
-Biotope
-Il est présent dans les canyons[2].
-Protection
-Pas de statut de protection particulier[2].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent uniquement en Californie sur la côte ouest de l'Amérique du Nord.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Chlosyne_gabbii</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlosyne_gabbii</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans les canyons.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Chlosyne_gabbii</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlosyne_gabbii</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
